--- a/aichan/560516433551216695_2021-08-19_11-30-02.xlsx
+++ b/aichan/560516433551216695_2021-08-19_11-30-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5199402113</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-21 10:59:42</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44429.458125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>5200378527</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-21 05:07:01</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44429.21320601852</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -673,10 +685,8 @@
           <t>5216561915</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-21 05:04:21</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44429.21135416667</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -744,10 +754,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-21 05:03:01</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44429.21042824074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -815,10 +823,8 @@
           <t>5216549876</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-21 04:58:51</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44429.20753472222</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -886,10 +892,8 @@
           <t>5212274895</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-20 18:53:51</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44428.78739583334</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -953,10 +957,8 @@
           <t>5211892610</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-20 18:18:04</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44428.7625462963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1024,10 +1026,8 @@
           <t>5211892610</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-20 18:15:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44428.76047453703</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1095,10 +1095,8 @@
           <t>5210926979</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-20 16:25:21</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44428.68427083334</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1162,10 +1160,8 @@
           <t>5210650049</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-20 15:50:49</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44428.66028935185</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1241,10 +1237,8 @@
           <t>5206142892</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-20 13:26:06</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44428.55979166667</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1312,10 +1306,8 @@
           <t>5209509463</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-20 13:24:40</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44428.5587962963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1391,10 +1383,8 @@
           <t>5206142892</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-20 13:24:14</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44428.55849537037</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1470,10 +1460,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-20 12:06:43</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44428.50466435185</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1533,10 +1521,8 @@
           <t>5199708283</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-20 11:46:18</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44428.49048611111</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -1608,10 +1594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-20 11:24:28</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44428.47532407408</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1683,10 +1667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-20 09:22:14</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44428.39043981482</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1754,10 +1736,8 @@
           <t>5206967141</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-20 07:27:27</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44428.31072916667</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1821,10 +1801,8 @@
           <t>5206883828</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-20 06:56:04</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44428.28893518518</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1888,10 +1866,8 @@
           <t>5206293682</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-20 01:42:56</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44428.07148148148</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1963,10 +1939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-20 01:20:23</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44428.05582175926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2034,10 +2008,8 @@
           <t>5206142892</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-20 01:10:59</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44428.04929398148</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
@@ -2105,10 +2077,8 @@
           <t>5206145536</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-20 01:10:47</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44428.04915509259</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2176,10 +2146,8 @@
           <t>5199344315</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-19 23:30:55</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44427.97980324074</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2243,10 +2211,8 @@
           <t>5204645586</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-19 22:18:22</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44427.9294212963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2314,10 +2280,8 @@
           <t>5204309924</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-19 21:45:28</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44427.90657407408</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2381,10 +2345,8 @@
           <t>5203007689</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:26:38</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44427.81016203704</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2448,10 +2410,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:18:26</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44427.80446759259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2519,10 +2479,8 @@
           <t>5202763965</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:02:15</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44427.79322916667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2582,10 +2540,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:42:25</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44427.77945601852</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2607,8 +2563,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>单推miu
-单推阿和</t>
+          <t>单推miu_x000a_单推阿和</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2658,10 +2613,8 @@
           <t>5202538069</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:38:33</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44427.77677083333</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2725,10 +2678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:31:39</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44427.77197916667</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2792,10 +2743,8 @@
           <t>5202237224</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:06:19</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44427.75438657407</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2867,10 +2816,8 @@
           <t>5202222818</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:04:57</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44427.7534375</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2946,10 +2893,8 @@
           <t>5202093056</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:51:39</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44427.74420138889</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3013,10 +2958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:48:24</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44427.74194444445</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3038,8 +2981,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>休伯利安职业清洁工
-小鸡岛职业发型师</t>
+          <t>休伯利安职业清洁工_x000a_小鸡岛职业发型师</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3093,10 +3035,8 @@
           <t>5201743027</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:25:06</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44427.72576388889</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3168,10 +3108,8 @@
           <t>5200430956</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:24:27</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44427.7253125</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3243,10 +3181,8 @@
           <t>5201777466</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:15:20</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44427.71898148148</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3310,10 +3246,8 @@
           <t>5201743027</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:11:46</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44427.71650462963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3335,8 +3269,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>这个人很神秘，刀劈够罕剑。国威asoul冲啊！
-二痴的票子那是真好赚啊</t>
+          <t>这个人很神秘，刀劈够罕剑。国威asoul冲啊！_x000a_二痴的票子那是真好赚啊</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -3382,10 +3315,8 @@
           <t>5201532411</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-19 16:46:26</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44427.69891203703</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3453,10 +3384,8 @@
           <t>5201490019</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-19 16:39:52</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44427.69435185185</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3524,10 +3453,8 @@
           <t>5201446807</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-19 16:34:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44427.69092592593</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3595,10 +3522,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-19 16:33:49</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44427.69015046296</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3662,10 +3587,8 @@
           <t>5200430956</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-19 16:30:39</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44427.68795138889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3733,10 +3656,8 @@
           <t>5201315457</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-19 16:17:11</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44427.67859953704</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3808,10 +3729,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-19 16:07:32</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44427.67189814815</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3887,10 +3806,8 @@
           <t>5201157839</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:56:25</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44427.66417824074</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3966,10 +3883,8 @@
           <t>5201146434</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:55:40</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44427.66365740741</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4033,10 +3948,8 @@
           <t>5201101161</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:49:02</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44427.65905092593</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4108,10 +4021,8 @@
           <t>5200430956</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:45:39</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44427.65670138889</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4183,10 +4094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:38:01</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44427.65140046296</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4258,10 +4167,8 @@
           <t>5199149291</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:31:18</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44427.64673611111</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4329,10 +4236,8 @@
           <t>5200930557</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:24:04</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44427.64171296296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4396,10 +4301,8 @@
           <t>5200913372</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:22:58</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44427.64094907408</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4475,10 +4378,8 @@
           <t>5200872197</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:16:41</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44427.63658564815</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4550,10 +4451,8 @@
           <t>5200805074</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:13:21</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44427.63427083333</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4625,10 +4524,8 @@
           <t>5200831410</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:10:46</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44427.63247685185</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4704,10 +4601,8 @@
           <t>5200810679</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:08:18</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44427.63076388889</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4771,10 +4666,8 @@
           <t>5200805074</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:07:24</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44427.63013888889</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4838,10 +4731,8 @@
           <t>5200796580</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:06:31</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44427.62952546297</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4909,10 +4800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:05:01</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44427.6284837963</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -4976,10 +4865,8 @@
           <t>5200740204</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:58:40</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44427.62407407408</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5047,10 +4934,8 @@
           <t>5200724900</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:57:11</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44427.62304398148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5122,10 +5007,8 @@
           <t>5200718813</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:56:32</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44427.62259259259</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5193,10 +5076,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:47:34</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44427.61636574074</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5272,10 +5153,8 @@
           <t>5200643063</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:46:12</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44427.61541666667</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5351,10 +5230,8 @@
           <t>5200430956</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:44:32</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44427.61425925926</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5422,10 +5299,8 @@
           <t>5200621016</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:42:05</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44427.61255787037</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5493,10 +5368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:37:15</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44427.60920138889</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5560,10 +5433,8 @@
           <t>5200468740</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:21:47</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44427.59846064815</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5627,10 +5498,8 @@
           <t>5200430956</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:21:34</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44427.59831018518</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5702,10 +5571,8 @@
           <t>5200467521</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:21:17</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44427.59811342593</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5769,10 +5636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:20:43</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44427.5977199074</v>
       </c>
       <c r="I75" t="n">
         <v>4</v>
@@ -5836,10 +5701,8 @@
           <t>5199112725</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:18:57</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44427.59649305556</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5903,10 +5766,8 @@
           <t>5200443314</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:18:47</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44427.59637731482</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -5970,10 +5831,8 @@
           <t>5200432943</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:17:17</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44427.59533564815</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -5995,8 +5854,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>想和我签订契约成为魔法少女seele吗？
-爷:没钱，不签，滚</t>
+          <t>想和我签订契约成为魔法少女seele吗？_x000a_爷:没钱，不签，滚</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -6046,10 +5904,8 @@
           <t>5200430956</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:16:32</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44427.59481481482</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6117,10 +5973,8 @@
           <t>5200415425</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:14:27</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44427.59336805555</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6188,10 +6042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:10:57</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44427.5909375</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6259,10 +6111,8 @@
           <t>5200378527</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:09:55</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44427.5902199074</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6338,10 +6188,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:09:07</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44427.58966435185</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6363,8 +6211,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>藏匿于黑暗之中，绽放于血月之下
-快手号:xjs2739504416</t>
+          <t>藏匿于黑暗之中，绽放于血月之下_x000a__x000a__x000a__x000a_快手号:xjs2739504416</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -6410,10 +6257,8 @@
           <t>5200262463</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:54:19</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44427.57938657407</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -6477,10 +6322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:54:15</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44427.57934027778</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6548,10 +6391,8 @@
           <t>5199098446</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:53:14</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44427.57863425926</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6627,10 +6468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:52:37</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44427.57820601852</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6698,10 +6537,8 @@
           <t>5199560407</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:52:22</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44427.57803240741</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6773,10 +6610,8 @@
           <t>5200224394</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:49:28</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44427.57601851852</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6852,10 +6687,8 @@
           <t>5199215533</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:48:11</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44427.57512731481</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6931,10 +6764,8 @@
           <t>5199915411</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:44:57</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44427.57288194444</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6998,10 +6829,8 @@
           <t>5200181113</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:42:52</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44427.57143518519</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7069,10 +6898,8 @@
           <t>5200164316</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:42:12</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44427.57097222222</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7136,10 +6963,8 @@
           <t>5200172087</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:41:40</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44427.57060185185</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7215,10 +7040,8 @@
           <t>5200154120</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:40:26</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44427.56974537037</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7282,10 +7105,8 @@
           <t>5200157397</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:39:44</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44427.56925925926</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7345,10 +7166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:39:00</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44427.56875</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7420,10 +7239,8 @@
           <t>5199159172</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:37:15</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44427.56753472222</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7483,10 +7300,8 @@
           <t>5200130928</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:37:07</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44427.56744212963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7550,10 +7365,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:35:10</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44427.56608796296</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7621,10 +7434,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:34:57</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44427.5659375</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7700,10 +7511,8 @@
           <t>5200109019</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:34:37</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44427.56570601852</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7779,10 +7588,8 @@
           <t>5199215533</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:33:58</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44427.56525462963</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7858,10 +7665,8 @@
           <t>5200062000</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:28:28</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44427.56143518518</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7933,10 +7738,8 @@
           <t>5200019292</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:23:54</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44427.55826388889</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8004,10 +7807,8 @@
           <t>5199111799</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:21:58</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44427.55692129629</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8079,10 +7880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:20:37</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44427.55598379629</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8146,10 +7945,8 @@
           <t>5199981400</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:19:03</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44427.55489583333</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8221,10 +8018,8 @@
           <t>5199968345</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:18:11</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44427.55429398148</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8292,10 +8087,8 @@
           <t>5199109427</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:18:05</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44427.55422453704</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8352,8 +8145,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>填空题：
-你（                          ）</t>
+          <t>填空题：_x000a_你（                          ）</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -8364,10 +8156,8 @@
           <t>5199963998</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:16:48</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44427.55333333334</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8439,10 +8229,8 @@
           <t>5199731021</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:12:23</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44427.5502662037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8510,10 +8298,8 @@
           <t>5199922270</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:12:03</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44427.55003472222</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8577,10 +8363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:11:50</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44427.54988425926</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8640,10 +8424,8 @@
           <t>5199911919</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:10:57</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44427.54927083333</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8719,10 +8501,8 @@
           <t>5199915411</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:10:41</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44427.54908564815</v>
       </c>
       <c r="I116" t="n">
         <v>5</v>
@@ -8794,10 +8574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:08:54</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44427.54784722222</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8861,10 +8639,8 @@
           <t>5199895371</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:08:47</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44427.5477662037</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -8932,10 +8708,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:06:21</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44427.54607638889</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9007,10 +8781,8 @@
           <t>5199855721</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:04:04</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44427.54449074074</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9082,10 +8854,8 @@
           <t>5199844802</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:03:44</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44427.54425925926</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9157,10 +8927,8 @@
           <t>5199200392</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:02:42</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44427.54354166667</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9232,10 +9000,8 @@
           <t>5199828530</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:01:32</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44427.54273148148</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9311,10 +9077,8 @@
           <t>5199818901</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:01:00</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44427.54236111111</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9378,10 +9142,8 @@
           <t>5199821190</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:00:42</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44427.54215277778</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9445,10 +9207,8 @@
           <t>5199344315</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:00:30</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44427.54201388889</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -9520,10 +9280,8 @@
           <t>5199086044</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:59:01</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44427.54098379629</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9591,10 +9349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:58:53</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44427.5408912037</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9662,10 +9418,8 @@
           <t>5199344315</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:58:45</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44427.54079861111</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9737,10 +9491,8 @@
           <t>5199791984</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:57:27</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44427.53989583333</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9808,10 +9560,8 @@
           <t>5199779600</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:56:45</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44427.53940972222</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9883,10 +9633,8 @@
           <t>5199778115</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:56:19</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44427.5391087963</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9962,10 +9710,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:55:59</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44427.53887731482</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10041,10 +9787,8 @@
           <t>5199215533</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:55:55</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44427.53883101852</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10112,10 +9856,8 @@
           <t>5199769576</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:55:28</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44427.53851851852</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10191,10 +9933,8 @@
           <t>5199763306</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:54:54</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44427.538125</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10270,10 +10010,8 @@
           <t>5199747161</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:53:05</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44427.53686342593</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10337,10 +10075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:51:37</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44427.5358449074</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10408,10 +10144,8 @@
           <t>5199402113</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:51:20</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44427.53564814815</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10475,10 +10209,8 @@
           <t>5199731021</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:51:15</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44427.53559027778</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10542,10 +10274,8 @@
           <t>5199591911</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:50:53</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44427.53533564815</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10621,10 +10351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:50:02</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44427.53474537037</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10688,10 +10416,8 @@
           <t>5199489347</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:49:44</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44427.53453703703</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10767,10 +10493,8 @@
           <t>5199708283</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:48:59</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44427.5340162037</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -10830,10 +10554,8 @@
           <t>5199691583</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:46:41</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44427.53241898148</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -10890,8 +10612,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2500水，一堆4星武器小垃圾[OK][doge]
-真有你的，爱莉希雅的pg</t>
+          <t>2500水，一堆4星武器小垃圾[OK][doge]_x000a_真有你的，爱莉希雅的pg</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -10902,10 +10623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:46:33</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44427.53232638889</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -10927,8 +10646,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t xml:space="preserve">岁月静好
-</t>
+          <t>岁月静好_x000a_</t>
         </is>
       </c>
       <c r="N146" t="n">
@@ -10978,10 +10696,8 @@
           <t>5199112725</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:46:08</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44427.53203703704</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11045,10 +10761,8 @@
           <t>5199678676</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:45:46</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44427.53178240741</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11112,10 +10826,8 @@
           <t>5199681043</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:45:28</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44427.53157407408</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11179,10 +10891,8 @@
           <t>5199669979</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:45:10</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44427.53136574074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11250,10 +10960,8 @@
           <t>5199604430</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:44:19</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44427.53077546296</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11329,10 +11037,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:44:18</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44427.53076388889</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11396,10 +11102,8 @@
           <t>5199584232</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:44:16</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44427.53074074074</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11475,10 +11179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:43:59</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44427.53054398148</v>
       </c>
       <c r="I154" t="n">
         <v>7</v>
@@ -11550,10 +11252,8 @@
           <t>5199653126</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:43:09</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44427.52996527778</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11617,10 +11317,8 @@
           <t>5199655821</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:42:52</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44427.52976851852</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11688,10 +11386,8 @@
           <t>5199648204</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:42:23</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44427.52943287037</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11763,10 +11459,8 @@
           <t>5199644254</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:42:18</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44427.529375</v>
       </c>
       <c r="I158" t="n">
         <v>2</v>
@@ -11838,10 +11532,8 @@
           <t>5199632380</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:41:33</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44427.52885416667</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11909,10 +11601,8 @@
           <t>5199632380</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:40:33</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44427.52815972222</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11980,10 +11670,8 @@
           <t>5199344315</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:39:51</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44427.52767361111</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12047,10 +11735,8 @@
           <t>5199183548</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:39:32</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44427.5274537037</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12122,10 +11808,8 @@
           <t>5199402113</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:39:03</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44427.52711805556</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12189,10 +11873,8 @@
           <t>5199111799</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:38:53</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44427.52700231481</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12264,10 +11946,8 @@
           <t>5199604430</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:38:00</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44427.52638888889</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -12339,10 +12019,8 @@
           <t>5199584232</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:36:09</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44427.52510416666</v>
       </c>
       <c r="I166" t="n">
         <v>3</v>
@@ -12414,10 +12092,8 @@
           <t>5199591911</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:36:08</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44427.52509259259</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12439,8 +12115,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hahahah
-</t>
+          <t>Hahahah_x000a_</t>
         </is>
       </c>
       <c r="N167" t="n">
@@ -12494,10 +12169,8 @@
           <t>5199590545</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:35:37</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44427.52473379629</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12561,10 +12234,8 @@
           <t>5199585847</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:35:14</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44427.52446759259</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12636,10 +12307,8 @@
           <t>5199473016</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:35:07</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44427.52438657408</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12707,10 +12376,8 @@
           <t>5199579073</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:35:06</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44427.524375</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12782,10 +12449,8 @@
           <t>5199578728</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:34:58</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44427.52428240741</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12849,10 +12514,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:34:30</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44427.52395833333</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12924,10 +12587,8 @@
           <t>5199402113</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:33:09</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44427.52302083333</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12984,8 +12645,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>回复 @殇の荡漾 :磁环机缺的我都想把鸡窝头绑了，按在血肉工厂里给我天天产。
-“不要，已经不能再生产了。”“开什么玩笑，你这剩余生产力不是还很多吗？”“等一下！那里是后备生产力，不可以！”“我就要用！”“不行，这样下去，车间要坏掉了！”“你还能继续产磁环机的对吧？不要停啊鸡窝头，我告诉你可以休息了吗？”“呜呜呜，放过我吧，我再也不想生产磁环机了。要变成磁环机的形状了”</t>
+          <t>回复 @殇の荡漾 :磁环机缺的我都想把鸡窝头绑了，按在血肉工厂里给我天天产。_x000a_“不要，已经不能再生产了。”“开什么玩笑，你这剩余生产力不是还很多吗？”“等一下！那里是后备生产力，不可以！”“我就要用！”“不行，这样下去，车间要坏掉了！”“你还能继续产磁环机的对吧？不要停啊鸡窝头，我告诉你可以休息了吗？”“呜呜呜，放过我吧，我再也不想生产磁环机了。要变成磁环机的形状了”</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -12996,10 +12656,8 @@
           <t>5199344315</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:32:27</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44427.52253472222</v>
       </c>
       <c r="I175" t="n">
         <v>39</v>
@@ -13071,10 +12729,8 @@
           <t>5199560407</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:32:06</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44427.52229166667</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13146,10 +12802,8 @@
           <t>5199115077</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:31:29</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44427.52186342593</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13225,10 +12879,8 @@
           <t>5199546371</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:30:56</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44427.52148148148</v>
       </c>
       <c r="I178" t="n">
         <v>7</v>
@@ -13250,8 +12902,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>May all the beauty be blessed 
-愿所有的美好都能得到祝福。</t>
+          <t>May all the beauty be blessed _x000a_愿所有的美好都能得到祝福。</t>
         </is>
       </c>
       <c r="N178" t="n">
@@ -13297,10 +12948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:30:33</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44427.52121527777</v>
       </c>
       <c r="I179" t="n">
         <v>8</v>
@@ -13372,10 +13021,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:29:01</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44427.52015046297</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13447,10 +13094,8 @@
           <t>5199517503</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:28:17</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44427.5196412037</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13522,10 +13167,8 @@
           <t>5199109427</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:28:11</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44427.51957175926</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13593,10 +13236,8 @@
           <t>5199357693</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:28:08</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44427.51953703703</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13668,10 +13309,8 @@
           <t>5199497758</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:26:15</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44427.51822916666</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13735,10 +13374,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:26:10</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44427.51817129629</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13810,10 +13447,8 @@
           <t>5199489347</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:25:48</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44427.51791666666</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13881,10 +13516,8 @@
           <t>5199485751</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:24:43</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44427.51716435186</v>
       </c>
       <c r="I187" t="n">
         <v>2</v>
@@ -13960,10 +13593,8 @@
           <t>5199473016</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:24:03</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44427.51670138889</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -13985,8 +13616,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>白茫茫苍凉之景，寂寞地寥寥落樱，汝眼中哪般光景。
-(￣ー￣)</t>
+          <t>白茫茫苍凉之景，寂寞地寥寥落樱，汝眼中哪般光景。_x000a_(￣ー￣)</t>
         </is>
       </c>
       <c r="N188" t="n">
@@ -14036,10 +13666,8 @@
           <t>5199478415</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:24:03</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44427.51670138889</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14115,10 +13743,8 @@
           <t>5199344315</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:23:18</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44427.51618055555</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14194,10 +13820,8 @@
           <t>5199475881</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:23:15</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44427.51614583333</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14265,10 +13889,8 @@
           <t>5199454291</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:23:14</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44427.51613425926</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14340,10 +13962,8 @@
           <t>5199475395</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:23:06</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44427.51604166667</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14419,10 +14039,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:22:59</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44427.51596064815</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14490,10 +14108,8 @@
           <t>5199215533</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:22:10</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44427.51539351852</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14557,10 +14173,8 @@
           <t>5199454291</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:22:00</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44427.51527777778</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14624,10 +14238,8 @@
           <t>5199457291</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:21:59</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44427.51526620371</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14703,10 +14315,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:21:53</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44427.51519675926</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14778,10 +14388,8 @@
           <t>5199460281</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:21:35</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44427.51498842592</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14853,10 +14461,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:21:07</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44427.51466435185</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -14932,10 +14538,8 @@
           <t>5199115077</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:20:56</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44427.51453703704</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -14999,10 +14603,8 @@
           <t>5199444248</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:20:52</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44427.51449074074</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15078,10 +14680,8 @@
           <t>5199115077</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:20:38</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44427.51432870371</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15157,10 +14757,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:20:29</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44427.51422453704</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15224,10 +14822,8 @@
           <t>5199429661</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:19:14</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44427.51335648148</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15295,10 +14891,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:19:11</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44427.51332175926</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15374,10 +14968,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:18:29</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44427.51283564815</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15453,10 +15045,8 @@
           <t>5199422633</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:18:17</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44427.51269675926</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15528,10 +15118,8 @@
           <t>5199422137</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:18:08</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44427.51259259259</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15607,10 +15195,8 @@
           <t>5199426163</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:18:01</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44427.51251157407</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15674,10 +15260,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:17:57</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44427.51246527778</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15749,10 +15333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:17:44</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44427.51231481481</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15816,10 +15398,8 @@
           <t>5199151734</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:17:40</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44427.51226851852</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15895,10 +15475,8 @@
           <t>5199409968</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:17:26</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44427.51210648148</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15966,10 +15544,8 @@
           <t>5199402113</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:16:47</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44427.5116550926</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16037,10 +15613,8 @@
           <t>5199402113</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:16:15</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44427.51128472222</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16104,10 +15678,8 @@
           <t>5199411202</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:16:15</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44427.51128472222</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -16175,10 +15747,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:16:05</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44427.51116898148</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16242,10 +15812,8 @@
           <t>5199388128</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:15:11</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44427.51054398148</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16309,10 +15877,8 @@
           <t>5199397649</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:15:06</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44427.51048611111</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16376,10 +15942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:14:56</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44427.51037037037</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16451,10 +16015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:14:44</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44427.51023148148</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16522,10 +16084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:14:43</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44427.51021990741</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16597,10 +16157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:14:07</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44427.50980324074</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16660,10 +16218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:13:53</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44427.5096412037</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16685,8 +16241,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>不定期会更新一些csgo炼金视频
-希望大家能喜欢！</t>
+          <t>不定期会更新一些csgo炼金视频_x000a_希望大家能喜欢！</t>
         </is>
       </c>
       <c r="N225" t="n">
@@ -16736,10 +16291,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:13:47</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44427.50957175926</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16803,10 +16356,8 @@
           <t>5199381785</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:13:16</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44427.50921296296</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16878,10 +16429,8 @@
           <t>5199380190</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:12:47</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44427.50887731482</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16949,10 +16498,8 @@
           <t>5199245630</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:12:32</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44427.5087037037</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17020,10 +16567,8 @@
           <t>5199115077</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:12:02</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44427.50835648148</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17091,10 +16636,8 @@
           <t>5199215533</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:11:54</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44427.50826388889</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17162,10 +16705,8 @@
           <t>5199362381</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:11:54</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44427.50826388889</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17241,10 +16782,8 @@
           <t>5199357693</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:11:29</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44427.50797453704</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17316,10 +16855,8 @@
           <t>5199349704</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:11:04</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44427.50768518518</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17387,10 +16924,8 @@
           <t>5199352813</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:10:33</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44427.50732638889</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17458,10 +16993,8 @@
           <t>5199344315</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:10:17</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44427.50714120371</v>
       </c>
       <c r="I236" t="n">
         <v>5</v>
@@ -17529,10 +17062,8 @@
           <t>5199343862</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:10:07</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44427.50702546296</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17608,10 +17139,8 @@
           <t>5199343604</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:10:01</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44427.50695601852</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17679,10 +17208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:09:28</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44427.50657407408</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17742,10 +17269,8 @@
           <t>5199333859</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:09:16</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44427.50643518518</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17817,10 +17342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:08:47</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44427.50609953704</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -17880,10 +17403,8 @@
           <t>5199331626</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:08:32</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44427.50592592593</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17951,10 +17472,8 @@
           <t>5199041810</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:08:21</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44427.50579861111</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18022,10 +17541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:50</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44427.50543981481</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18093,10 +17610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:42</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44427.50534722222</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18160,10 +17675,8 @@
           <t>5199245630</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:29</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44427.50519675926</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18231,10 +17744,8 @@
           <t>5199308454</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:25</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44427.50445601852</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18299,8 +17810,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>那不勒斯，jo厨狂喜[tv_目瞪口呆]
-笑死我。</t>
+          <t>那不勒斯，jo厨狂喜[tv_目瞪口呆]_x000a_笑死我。</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -18311,10 +17821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:15</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44427.50434027778</v>
       </c>
       <c r="I248" t="n">
         <v>5</v>
@@ -18386,10 +17894,8 @@
           <t>5199312232</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:01</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44427.50417824074</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18457,10 +17963,8 @@
           <t>5199302888</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:05:47</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44427.5040162037</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18524,10 +18028,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:05:05</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44427.5035300926</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18591,10 +18093,8 @@
           <t>5199297926</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:04:45</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44427.50329861111</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18666,10 +18166,8 @@
           <t>5199297738</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:04:42</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44427.50326388889</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18745,10 +18243,8 @@
           <t>5199293498</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:04:38</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44427.5032175926</v>
       </c>
       <c r="I254" t="n">
         <v>8</v>
@@ -18816,10 +18312,8 @@
           <t>5199293453</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:04:37</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44427.50320601852</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18887,10 +18381,8 @@
           <t>5199293399</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:04:36</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44427.50319444444</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -18950,10 +18442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:04:24</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44427.50305555556</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19029,10 +18519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:04:09</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44427.50288194444</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19100,10 +18588,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:03:48</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44427.50263888889</v>
       </c>
       <c r="I259" t="n">
         <v>4</v>
@@ -19167,10 +18653,8 @@
           <t>5199282694</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:03:13</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44427.50223379629</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19242,10 +18726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:02:43</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44427.50188657407</v>
       </c>
       <c r="I261" t="n">
         <v>11</v>
@@ -19321,10 +18803,8 @@
           <t>5199277003</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:02:23</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44427.50165509259</v>
       </c>
       <c r="I262" t="n">
         <v>2</v>
@@ -19396,10 +18876,8 @@
           <t>5199271074</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:02:02</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44427.50141203704</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19471,10 +18949,8 @@
           <t>5199268535</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:02:01</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44427.50140046296</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19550,10 +19026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:02:00</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44427.50138888889</v>
       </c>
       <c r="I265" t="n">
         <v>9</v>
@@ -19629,10 +19103,8 @@
           <t>5199035918</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:01:46</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44427.50122685185</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19708,10 +19180,8 @@
           <t>5199247768</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:01:27</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44427.50100694445</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19779,10 +19249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:01:26</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44427.50099537037</v>
       </c>
       <c r="I268" t="n">
         <v>88</v>
@@ -19850,10 +19318,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:01:07</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44427.50077546296</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19929,10 +19395,8 @@
           <t>5199254952</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:01:02</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44427.50071759259</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20000,10 +19464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:01:01</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44427.50070601852</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20075,10 +19537,8 @@
           <t>5199149291</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:54</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44427.500625</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20150,10 +19610,8 @@
           <t>5199254327</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:51</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44427.50059027778</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20221,10 +19679,8 @@
           <t>5199129625</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:51</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44427.50059027778</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20300,10 +19756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:48</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44427.50055555555</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20371,10 +19825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:48</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44427.50055555555</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20442,10 +19894,8 @@
           <t>5199260769</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:34</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44427.50039351852</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20505,10 +19955,8 @@
           <t>5199260274</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:25</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44427.50028935185</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20576,10 +20024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:23</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44427.5002662037</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20647,10 +20093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:16</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44427.50018518518</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20714,10 +20158,8 @@
           <t>5199197268</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:00:12</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44427.50013888889</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20785,10 +20227,8 @@
           <t>5199251393</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:56</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44427.4999537037</v>
       </c>
       <c r="I282" t="n">
         <v>15</v>
@@ -20864,10 +20304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:50</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44427.49988425926</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20931,10 +20369,8 @@
           <t>5199248237</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:43</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44427.49980324074</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21010,10 +20446,8 @@
           <t>5199247768</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:34</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44427.49969907408</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21081,10 +20515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:31</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44427.49966435185</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21160,10 +20592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:22</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44427.49956018518</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21231,10 +20661,8 @@
           <t>5199197268</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:20</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44427.49953703704</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21298,10 +20726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:18</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44427.49951388889</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21365,10 +20791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:16</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44427.49949074074</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21440,10 +20864,8 @@
           <t>5199243224</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:59:15</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44427.49947916667</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21511,10 +20933,8 @@
           <t>5199111799</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:51</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44427.49920138889</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21578,10 +20998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:48</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44427.49916666667</v>
       </c>
       <c r="I293" t="n">
         <v>41</v>
@@ -21649,10 +21067,8 @@
           <t>5199245630</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:48</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44427.49916666667</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21720,10 +21136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:27</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44427.49892361111</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21795,10 +21209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:27</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44427.49892361111</v>
       </c>
       <c r="I296" t="n">
         <v>13</v>
@@ -21870,10 +21282,8 @@
           <t>5199236656</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:25</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44427.49890046296</v>
       </c>
       <c r="I297" t="n">
         <v>17</v>
@@ -21937,10 +21347,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:22</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44427.49886574074</v>
       </c>
       <c r="I298" t="n">
         <v>3</v>
@@ -22016,10 +21424,8 @@
           <t>5199223108</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:16</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44427.4987962963</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22095,10 +21501,8 @@
           <t>5199233643</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:09</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44427.49871527778</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22166,10 +21570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:58:01</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44427.49862268518</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22191,8 +21593,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t xml:space="preserve">没有出头之日的小up
-</t>
+          <t>没有出头之日的小up_x000a_</t>
         </is>
       </c>
       <c r="N301" t="n">
@@ -22246,10 +21647,8 @@
           <t>5199221418</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:57:57</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44427.49857638889</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22317,10 +21716,8 @@
           <t>5199220834</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:57:47</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44427.49846064814</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22396,10 +21793,8 @@
           <t>5199229128</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:57:36</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44427.49833333334</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22463,10 +21858,8 @@
           <t>5199223525</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:57:32</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44427.49828703704</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22542,10 +21935,8 @@
           <t>5199223108</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:57:22</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44427.4981712963</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22613,10 +22004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:57:14</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44427.49807870371</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22688,10 +22077,8 @@
           <t>5199200392</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:57:09</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44427.49802083334</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22767,10 +22154,8 @@
           <t>5199215533</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:57:07</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44427.49799768518</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22792,8 +22177,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t xml:space="preserve">l•ω•`)
-</t>
+          <t>l•ω•`)_x000a_</t>
         </is>
       </c>
       <c r="N309" t="n">
@@ -22832,8 +22216,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>回复 @粥不好喝一定是米的错 :老太婆?
-她只是18岁零很多个月而已[原神_欸嘿]</t>
+          <t>回复 @粥不好喝一定是米的错 :老太婆?_x000a_她只是18岁零很多个月而已[原神_欸嘿]</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -22844,10 +22227,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:57:03</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44427.49795138889</v>
       </c>
       <c r="I310" t="n">
         <v>5</v>
@@ -22915,10 +22296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:54</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44427.49784722222</v>
       </c>
       <c r="I311" t="n">
         <v>5</v>
@@ -22994,10 +22373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:54</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44427.49784722222</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23073,10 +22450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:51</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44427.4978125</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23152,10 +22527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:50</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44427.49780092593</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23223,10 +22596,8 @@
           <t>5199219723</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:48</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44427.49777777777</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23294,10 +22665,8 @@
           <t>5199220834</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:33</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44427.49760416667</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23369,10 +22738,8 @@
           <t>5199220491</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:25</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44427.49751157407</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23448,10 +22815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:14</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44427.49738425926</v>
       </c>
       <c r="I318" t="n">
         <v>2</v>
@@ -23515,10 +22880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:14</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44427.49738425926</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23582,10 +22945,8 @@
           <t>5199102002</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:56:09</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44427.49732638889</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23607,8 +22968,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>如果跟你互怼了，那一定是我的问题，杠就是你对，你知道为什么吗？^^
-一个2.4岁的猴山观察员</t>
+          <t>如果跟你互怼了，那一定是我的问题，杠就是你对，你知道为什么吗？^^_x000a_一个2.4岁的猴山观察员</t>
         </is>
       </c>
       <c r="N320" t="n">
@@ -23654,10 +23014,8 @@
           <t>5199166799</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:55:57</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44427.4971875</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23729,10 +23087,8 @@
           <t>5199213572</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:55:49</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44427.4970949074</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23800,10 +23156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:55:45</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44427.49704861111</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23867,10 +23221,8 @@
           <t>5199215533</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:55:22</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44427.4967824074</v>
       </c>
       <c r="I324" t="n">
         <v>21</v>
@@ -23938,10 +23290,8 @@
           <t>5199099844</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:55:18</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44427.49673611111</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24013,10 +23363,8 @@
           <t>5199099844</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:55:17</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44427.49672453704</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24080,10 +23428,8 @@
           <t>5199210725</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:52</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44427.49643518519</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24147,10 +23493,8 @@
           <t>5199098446</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:44</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44427.4963425926</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24226,10 +23570,8 @@
           <t>5199206069</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:41</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44427.49630787037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24297,10 +23639,8 @@
           <t>5199205834</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:37</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44427.49626157407</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24372,10 +23712,8 @@
           <t>5199098446</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:35</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44427.49623842593</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24451,10 +23789,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:30</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44427.49618055556</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24530,10 +23866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:21</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44427.49607638889</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24609,10 +23943,8 @@
           <t>5199202612</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:21</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44427.49607638889</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24680,10 +24012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:19</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44427.49605324074</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24759,10 +24089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:15</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44427.49600694444</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24826,10 +24154,8 @@
           <t>5199194759</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:12</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44427.49597222222</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -24893,10 +24219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:11</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44427.49596064815</v>
       </c>
       <c r="I338" t="n">
         <v>6</v>
@@ -24964,10 +24288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:08</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44427.49592592593</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25035,10 +24357,8 @@
           <t>5199098446</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:08</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44427.49592592593</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
@@ -25114,10 +24434,8 @@
           <t>5199198457</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:07</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44427.49591435185</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25193,10 +24511,8 @@
           <t>5199194340</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:54:03</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44427.49586805556</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25260,10 +24576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:49</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44427.49570601852</v>
       </c>
       <c r="I343" t="n">
         <v>2</v>
@@ -25331,10 +24645,8 @@
           <t>5199099844</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:47</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44427.49568287037</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25410,10 +24722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:46</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44427.4956712963</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25485,10 +24795,8 @@
           <t>5199193505</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:45</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44427.49565972222</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25564,10 +24872,8 @@
           <t>5199197268</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:45</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44427.49565972222</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25635,10 +24941,8 @@
           <t>5199169603</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:40</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44427.49560185185</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25698,10 +25002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:37</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44427.49556712963</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25777,10 +25079,8 @@
           <t>5199200392</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:36</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44427.49555555556</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25844,10 +25144,8 @@
           <t>5199196652</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:34</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44427.49553240741</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25911,10 +25209,8 @@
           <t>5199192897</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:30</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44427.49548611111</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -25982,10 +25278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:23</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44427.4954050926</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26049,10 +25343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:19</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44427.4953587963</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26124,10 +25416,8 @@
           <t>5199112725</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:53:04</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44427.49518518519</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26203,10 +25493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:56</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44427.4950925926</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26274,10 +25562,8 @@
           <t>5199184297</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:49</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44427.49501157407</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26353,10 +25639,8 @@
           <t>5199190861</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:42</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44427.49493055556</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26432,10 +25716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:37</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44427.49487268519</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26503,10 +25785,8 @@
           <t>5199183548</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:35</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44427.49484953703</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26574,10 +25854,8 @@
           <t>5199183162</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:27</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44427.49475694444</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -26645,10 +25923,8 @@
           <t>5199179333</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:08</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44427.49453703704</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26716,10 +25992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:02</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44427.49446759259</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26791,10 +26065,8 @@
           <t>5199181826</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:02</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44427.49446759259</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26870,10 +26142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:01</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44427.49445601852</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -26949,10 +26219,8 @@
           <t>5199185497</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:58</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44427.49442129629</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27020,10 +26288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:57</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44427.49440972223</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27087,10 +26353,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:54</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44427.494375</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27154,10 +26418,8 @@
           <t>5199174829</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:45</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44427.49427083333</v>
       </c>
       <c r="I369" t="n">
         <v>2</v>
@@ -27229,10 +26491,8 @@
           <t>5199178208</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:42</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44427.49423611111</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27308,10 +26568,8 @@
           <t>5199178201</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:41</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44427.49422453704</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27383,10 +26641,8 @@
           <t>5199174442</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:37</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44427.49417824074</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27454,10 +26710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:36</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44427.49416666666</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27521,10 +26775,8 @@
           <t>5199169603</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:19</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44427.49396990741</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27596,10 +26848,8 @@
           <t>5199169441</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:16</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44427.49393518519</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27675,10 +26925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:10</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44427.49386574074</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27742,10 +26990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:51:02</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44427.49377314815</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27813,10 +27059,8 @@
           <t>5199168520</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:50:58</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44427.49372685186</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27892,10 +27136,8 @@
           <t>5199176211</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:50:56</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44427.4937037037</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27959,10 +27201,8 @@
           <t>5199166799</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:50:26</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44427.49335648148</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28038,10 +27278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:50:23</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44427.49332175926</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28113,10 +27351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:50:22</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44427.49331018519</v>
       </c>
       <c r="I382" t="n">
         <v>39</v>
@@ -28184,10 +27420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:50:10</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44427.49317129629</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28255,10 +27489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:57</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44427.49302083333</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28280,9 +27512,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>在这困顿，阴郁的心灵深处
-梦 拎起烈日下行者遗落的碎片
-铸造天堂</t>
+          <t>在这困顿，阴郁的心灵深处_x000a_梦 拎起烈日下行者遗落的碎片_x000a_铸造天堂</t>
         </is>
       </c>
       <c r="N384" t="n">
@@ -28336,10 +27566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:54</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44427.49298611111</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28415,10 +27643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:51</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44427.49295138889</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28490,10 +27716,8 @@
           <t>5199159172</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:50</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44427.49293981482</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28569,10 +27793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:46</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44427.49289351852</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28648,10 +27870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:46</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44427.49289351852</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28719,10 +27939,8 @@
           <t>5199162758</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:39</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44427.4928125</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28786,10 +28004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:32</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44427.49273148148</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28857,10 +28073,8 @@
           <t>5199098446</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:32</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44427.49273148148</v>
       </c>
       <c r="I392" t="n">
         <v>3</v>
@@ -28936,10 +28150,8 @@
           <t>5199102002</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:30</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44427.49270833333</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29007,10 +28219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:29</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44427.49269675926</v>
       </c>
       <c r="I394" t="n">
         <v>2</v>
@@ -29086,10 +28296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:22</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44427.49261574074</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29149,10 +28357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:18</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44427.49256944445</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29228,10 +28434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:17</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44427.49255787037</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29307,10 +28511,8 @@
           <t>5199160438</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:16</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44427.49254629629</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29374,10 +28576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:15</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44427.49253472222</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29445,10 +28645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:13</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44427.49251157408</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29470,8 +28668,7 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>既然我的青春有悔，那我就创造一个无悔的世界
-成就：任职休伯利安舰长，兼职碧蓝航线、空中花园指挥官，于提瓦特大陆考察世界</t>
+          <t>既然我的青春有悔，那我就创造一个无悔的世界_x000a_成就：任职休伯利安舰长，兼职碧蓝航线、空中花园指挥官，于提瓦特大陆考察世界</t>
         </is>
       </c>
       <c r="N400" t="n">
@@ -29517,10 +28714,8 @@
           <t>5199099844</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:12</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44427.4925</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29592,10 +28787,8 @@
           <t>5199152320</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:00</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44427.49236111111</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29667,10 +28860,8 @@
           <t>5199098446</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:49:00</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44427.49236111111</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -29738,10 +28929,8 @@
           <t>5199160991</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:59</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44427.49234953704</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29794,13 +28983,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>／ ￣￣ ＼　  /  ￣ ￣ ￣ ￣  ￣￣ ￣   \
-|　ー　ー   \   |    亲爱的崩三，             \
-|　◉　◉  |   |   深渊的温度                  |
-\　　▱　/ ∠     要是像您的态度一样冷 |
- ＼　　イ      \  我早就上寂灭了            |
- ／　　　\      \_______________________ /     
-  |       |</t>
+          <t>／ ￣￣ ＼　  /  ￣ ￣ ￣ ￣  ￣￣ ￣   \_x000a_|　ー　ー   \   |    亲爱的崩三，             \_x000a_|　◉　◉  |   |   深渊的温度                  |_x000a_\　　▱　/ ∠     要是像您的态度一样冷 |_x000a_ ＼　　イ      \  我早就上寂灭了            |_x000a_ ／　　　\      \_______________________ /     _x000a_  |       |</t>
         </is>
       </c>
       <c r="F405" t="n">
@@ -29811,10 +28994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:54</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44427.49229166667</v>
       </c>
       <c r="I405" t="n">
         <v>94</v>
@@ -29878,10 +29059,8 @@
           <t>5199160737</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:53</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44427.49228009259</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -29903,8 +29082,7 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-</t>
+          <t>_x000a_</t>
         </is>
       </c>
       <c r="N406" t="n">
@@ -29954,10 +29132,8 @@
           <t>5199151734</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:49</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44427.4922337963</v>
       </c>
       <c r="I407" t="n">
         <v>2</v>
@@ -30029,10 +29205,8 @@
           <t>5199160438</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:46</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44427.49219907408</v>
       </c>
       <c r="I408" t="n">
         <v>3</v>
@@ -30096,10 +29270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:44</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44427.49217592592</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30171,10 +29343,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:42</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44427.49215277778</v>
       </c>
       <c r="I410" t="n">
         <v>5</v>
@@ -30242,10 +29412,8 @@
           <t>5199155763</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:40</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44427.49212962963</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30267,10 +29435,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 　　 　　　　　　　　　　　　　
-　　　 　          ╯　　　 　╰
-　　　　           ●　　 　 　 ●
-　　　　           &amp;quot; 　　^　　   &amp;</t>
+          <t xml:space="preserve"> 　　 　　　　　　　　　　　　　_x000d__x000a_　　　 　          ╯　　　 　╰_x000d__x000a_　　　　           ●　　 　 　 ●_x000d__x000a_　　　　           &amp;quot; 　　^　　   &amp;</t>
         </is>
       </c>
       <c r="N411" t="n">
@@ -30324,10 +29489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:32</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44427.49203703704</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30391,10 +29554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:27</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44427.49197916667</v>
       </c>
       <c r="I413" t="n">
         <v>193</v>
@@ -30462,10 +29623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:25</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44427.49195601852</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30533,10 +29692,8 @@
           <t>5199149291</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:19</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44427.49188657408</v>
       </c>
       <c r="I415" t="n">
         <v>6</v>
@@ -30604,10 +29761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:13</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44427.49181712963</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30675,10 +29830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:11</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44427.49179398148</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30754,10 +29907,8 @@
           <t>5199139788</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:48:09</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44427.49177083333</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30821,10 +29972,8 @@
           <t>5199143782</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:58</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44427.49164351852</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -30900,10 +30049,8 @@
           <t>5199138886</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:51</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44427.4915625</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30963,10 +30110,8 @@
           <t>5199143071</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:42</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44427.49145833333</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31042,10 +30187,8 @@
           <t>5199142865</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:38</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44427.49141203704</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31121,10 +30264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:34</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44427.49136574074</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31192,10 +30333,8 @@
           <t>5199138054</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:34</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44427.49136574074</v>
       </c>
       <c r="I424" t="n">
         <v>5</v>
@@ -31259,10 +30398,8 @@
           <t>5199142649</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:34</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44427.49136574074</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31334,10 +30471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:13</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44427.49112268518</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31409,10 +30544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:09</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44427.49107638889</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31480,10 +30613,8 @@
           <t>5199136591</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:47:05</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44427.49103009259</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31559,10 +30690,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:54</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44427.49090277778</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31584,8 +30713,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t xml:space="preserve">大号没了，离谱
-</t>
+          <t>大号没了，离谱_x000a_</t>
         </is>
       </c>
       <c r="N429" t="n">
@@ -31631,10 +30759,8 @@
           <t>5199140723</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:51</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44427.49086805555</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31702,10 +30828,8 @@
           <t>5199099844</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:51</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44427.49086805555</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31777,10 +30901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:50</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44427.49085648148</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31848,10 +30970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:30</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44427.490625</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31923,10 +31043,8 @@
           <t>5199129625</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:26</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44427.49057870371</v>
       </c>
       <c r="I434" t="n">
         <v>3</v>
@@ -32002,10 +31120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:21</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44427.49052083334</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32027,8 +31143,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>随缘更新，粗剪配音，爱好摄影做饭弹钢琴，打游戏
-喜欢的同学点个关注鸭！</t>
+          <t>随缘更新，粗剪配音，爱好摄影做饭弹钢琴，打游戏_x000a_喜欢的同学点个关注鸭！</t>
         </is>
       </c>
       <c r="N435" t="n">
@@ -32078,10 +31193,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:20</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44427.49050925926</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32157,10 +31270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:18</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44427.49048611111</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32236,10 +31347,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:18</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44427.49048611111</v>
       </c>
       <c r="I438" t="n">
         <v>22</v>
@@ -32303,10 +31412,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:18</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44427.49048611111</v>
       </c>
       <c r="I439" t="n">
         <v>9</v>
@@ -32378,10 +31485,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:46:12</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44427.49041666667</v>
       </c>
       <c r="I440" t="n">
         <v>13</v>
@@ -32453,10 +31558,8 @@
           <t>5199122653</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:45:42</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44427.49006944444</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32528,10 +31631,8 @@
           <t>5199122061</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:45:29</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44427.48991898148</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32595,10 +31696,8 @@
           <t>5199131544</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:45:25</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44427.48987268518</v>
       </c>
       <c r="I443" t="n">
         <v>3</v>
@@ -32666,10 +31765,8 @@
           <t>5199098446</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:45:10</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44427.48969907407</v>
       </c>
       <c r="I444" t="n">
         <v>3</v>
@@ -32737,10 +31834,8 @@
           <t>5199125808</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:45:09</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44427.4896875</v>
       </c>
       <c r="I445" t="n">
         <v>2</v>
@@ -32816,10 +31911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:45:07</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44427.48966435185</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32895,10 +31988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:45:06</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44427.48965277777</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32974,10 +32065,8 @@
           <t>5199130605</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:45:04</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44427.48962962963</v>
       </c>
       <c r="I448" t="n">
         <v>2</v>
@@ -33037,10 +32126,8 @@
           <t>5199119856</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:49</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44427.48945601852</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33116,10 +32203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:47</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44427.48943287037</v>
       </c>
       <c r="I450" t="n">
         <v>3</v>
@@ -33195,10 +32280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:41</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44427.48936342593</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33266,10 +32349,8 @@
           <t>5199098446</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:35</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44427.48929398148</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33329,10 +32410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:32</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44427.48925925926</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33404,10 +32483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:30</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44427.48923611111</v>
       </c>
       <c r="I454" t="n">
         <v>8</v>
@@ -33471,10 +32548,8 @@
           <t>5199099844</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:30</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44427.48923611111</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33550,10 +32625,8 @@
           <t>5199109427</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:25</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44427.48917824074</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33621,10 +32694,8 @@
           <t>5199109340</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:23</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44427.48915509259</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33696,10 +32767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:17</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44427.48908564815</v>
       </c>
       <c r="I458" t="n">
         <v>7</v>
@@ -33721,8 +32790,7 @@
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t xml:space="preserve">开心地度过每一天
-</t>
+          <t>开心地度过每一天_x000a_</t>
         </is>
       </c>
       <c r="N458" t="n">
@@ -33776,10 +32844,8 @@
           <t>5199113128</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:12</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44427.48902777778</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -33851,10 +32917,8 @@
           <t>5199117782</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:05</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44427.48894675926</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33930,10 +32994,8 @@
           <t>5199112725</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:04</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44427.48893518518</v>
       </c>
       <c r="I461" t="n">
         <v>7</v>
@@ -34009,10 +33071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:03</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44427.48892361111</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34072,10 +33132,8 @@
           <t>5199117640</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:02</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44427.48891203704</v>
       </c>
       <c r="I463" t="n">
         <v>4</v>
@@ -34147,10 +33205,8 @@
           <t>5199117532</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:44:00</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44427.48888888889</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34218,10 +33274,8 @@
           <t>5199108149</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:43:55</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44427.48883101852</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34285,10 +33339,8 @@
           <t>5199111799</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:43:43</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44427.48869212963</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34364,10 +33416,8 @@
           <t>5199099844</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:43:30</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44427.48854166667</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34435,10 +33485,8 @@
           <t>5199106735</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:43:21</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44427.4884375</v>
       </c>
       <c r="I468" t="n">
         <v>75</v>
@@ -34502,10 +33550,8 @@
           <t>5199115077</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:43:12</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44427.48833333333</v>
       </c>
       <c r="I469" t="n">
         <v>3</v>
@@ -34581,10 +33627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:43:08</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44427.48828703703</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34606,8 +33650,7 @@
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>日常冲浪，喜欢对线（什。是个宅男（
-（单推斯卡蒂嘿嘿(。-`ω´-)）</t>
+          <t>日常冲浪，喜欢对线（什。是个宅男（_x000a_（单推斯卡蒂嘿嘿(。-`ω´-)）</t>
         </is>
       </c>
       <c r="N470" t="n">
@@ -34653,10 +33696,8 @@
           <t>5199104816</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:43:06</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44427.48826388889</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34720,10 +33761,8 @@
           <t>5199099844</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:43:01</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44427.48820601852</v>
       </c>
       <c r="I472" t="n">
         <v>14</v>
@@ -34795,10 +33834,8 @@
           <t>5199099753</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:59</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44427.48818287037</v>
       </c>
       <c r="I473" t="n">
         <v>9</v>
@@ -34866,10 +33903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:44</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44427.48800925926</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34937,10 +33972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:36</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44427.48791666667</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35016,10 +34049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:34</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44427.48789351852</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35079,10 +34110,8 @@
           <t>5199098446</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:31</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44427.4878587963</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35158,10 +34187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:30</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44427.48784722222</v>
       </c>
       <c r="I478" t="n">
         <v>2</v>
@@ -35233,10 +34260,8 @@
           <t>5199094384</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:24</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44427.48777777778</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35296,10 +34321,8 @@
           <t>5199102108</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:12</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44427.48763888889</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35363,10 +34386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:08</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44427.4875925926</v>
       </c>
       <c r="I481" t="n">
         <v>11</v>
@@ -35434,10 +34455,8 @@
           <t>5199097126</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:42:02</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44427.48752314815</v>
       </c>
       <c r="I482" t="n">
         <v>2</v>
@@ -35501,10 +34520,8 @@
           <t>5199101279</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:41:56</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44427.4874537037</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35572,10 +34589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:41:44</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44427.48731481482</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35651,10 +34666,8 @@
           <t>5199087114</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:40:30</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44427.48645833333</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35726,10 +34739,8 @@
           <t>5199087055</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:40:29</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44427.48644675926</v>
       </c>
       <c r="I486" t="n">
         <v>9</v>
@@ -35805,10 +34816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:40:24</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44427.48638888889</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35872,10 +34881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:40:20</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44427.48634259259</v>
       </c>
       <c r="I488" t="n">
         <v>5</v>
@@ -35947,10 +34954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:40:13</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44427.48626157407</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36026,10 +35031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:40:07</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44427.48619212963</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36097,10 +35100,8 @@
           <t>5199086044</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:40:07</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44427.48619212963</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36164,10 +35165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:39:56</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44427.48606481482</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36243,10 +35242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:39:50</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44427.48599537037</v>
       </c>
       <c r="I493" t="n">
         <v>140</v>
@@ -36322,10 +35319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:39:34</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44427.48581018519</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36401,10 +35396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:39:21</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44427.48565972222</v>
       </c>
       <c r="I495" t="n">
         <v>50</v>
@@ -36480,10 +35473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:39:16</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44427.48560185185</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36547,10 +35538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:39:14</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44427.4855787037</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36626,10 +35615,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:39:12</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44427.48555555556</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36701,10 +35688,8 @@
           <t>5199068848</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:39:03</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44427.48545138889</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36776,10 +35761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:38:54</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44427.48534722222</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36847,10 +35830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:38:46</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44427.48525462963</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36914,10 +35895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:38:44</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44427.48523148148</v>
       </c>
       <c r="I502" t="n">
         <v>80</v>
@@ -36993,10 +35972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:38:34</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44427.48511574074</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37064,10 +36041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:38:28</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44427.48504629629</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37131,10 +36106,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:57</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44427.4846875</v>
       </c>
       <c r="I505" t="n">
         <v>7</v>
@@ -37199,8 +36172,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>。    。
-     3</t>
+          <t>。    。_x000a_     3</t>
         </is>
       </c>
       <c r="F506" t="n">
@@ -37211,10 +36183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:48</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44427.48458333333</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37286,10 +36256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:47</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44427.48457175926</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37353,10 +36321,8 @@
           <t>5199058740</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:44</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44427.48453703704</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37424,10 +36390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:42</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44427.48451388889</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37499,10 +36463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:41</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44427.48450231482</v>
       </c>
       <c r="I510" t="n">
         <v>2</v>
@@ -37566,10 +36528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:38</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44427.48446759259</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37637,10 +36597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:25</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44427.48431712963</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37716,10 +36674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:04</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44427.48407407408</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37783,10 +36739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:37:02</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44427.48405092592</v>
       </c>
       <c r="I514" t="n">
         <v>367</v>
@@ -37858,10 +36812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:36:51</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44427.48392361111</v>
       </c>
       <c r="I515" t="n">
         <v>4</v>
@@ -37883,8 +36835,7 @@
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>b站牛逼
-https://u.nu/tzp3 封面提取，不用谢</t>
+          <t>b站牛逼_x000a_https://u.nu/tzp3 封面提取，不用谢</t>
         </is>
       </c>
       <c r="N515" t="n">
@@ -37926,10 +36877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:36:45</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44427.48385416667</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38005,10 +36954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:36:42</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44427.48381944445</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38080,10 +37027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:36:41</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44427.48380787037</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38155,10 +37100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:36:32</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44427.48370370371</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38218,10 +37161,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:36:08</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44427.48342592592</v>
       </c>
       <c r="I520" t="n">
         <v>2</v>
@@ -38297,10 +37238,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:36:05</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44427.48339120371</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38372,10 +37311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:36:02</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44427.48335648148</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38443,10 +37380,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:36:00</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44427.48333333333</v>
       </c>
       <c r="I523" t="n">
         <v>25</v>
@@ -38514,10 +37449,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:53</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44427.48325231481</v>
       </c>
       <c r="I524" t="n">
         <v>2</v>
@@ -38585,10 +37518,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:51</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44427.48322916667</v>
       </c>
       <c r="I525" t="n">
         <v>83</v>
@@ -38652,10 +37583,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:45</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44427.48315972222</v>
       </c>
       <c r="I526" t="n">
         <v>4</v>
@@ -38723,10 +37652,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:43</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44427.48313657408</v>
       </c>
       <c r="I527" t="n">
         <v>5</v>
@@ -38794,10 +37721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:30</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44427.48298611111</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38861,10 +37786,8 @@
           <t>5199041810</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:29</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44427.48297453704</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38928,10 +37851,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:25</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44427.48292824074</v>
       </c>
       <c r="I530" t="n">
         <v>32</v>
@@ -38953,8 +37874,7 @@
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t>星极单推人
-回归原始，放下所有</t>
+          <t>星极单推人_x000a_回归原始，放下所有</t>
         </is>
       </c>
       <c r="N530" t="n">
@@ -39008,10 +37928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:24</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44427.48291666667</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39068,8 +37986,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>你所热爱的，就是你的水晶
-[doge][脱单doge]</t>
+          <t>你所热爱的，就是你的水晶_x000a_[doge][脱单doge]</t>
         </is>
       </c>
       <c r="F532" t="n">
@@ -39080,10 +37997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:21</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44427.48288194444</v>
       </c>
       <c r="I532" t="n">
         <v>115</v>
@@ -39155,10 +38070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:15</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44427.4828125</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39226,10 +38139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:15</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44427.4828125</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39293,10 +38204,8 @@
           <t>5199038144</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:14</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44427.48280092593</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39356,10 +38265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:12</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44427.48277777778</v>
       </c>
       <c r="I536" t="n">
         <v>2</v>
@@ -39435,10 +38342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:06</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44427.48270833334</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39460,8 +38365,7 @@
       </c>
       <c r="M537" t="inlineStr">
         <is>
-          <t>新的一年要加油哦~\(≧▽≦)/~
-bilibili- ( ゜- ゜)つロ 乾杯~</t>
+          <t>新的一年要加油哦~\(≧▽≦)/~_x000a_bilibili- ( ゜- ゜)つロ 乾杯~</t>
         </is>
       </c>
       <c r="N537" t="n">
@@ -39515,10 +38419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:35:02</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44427.48266203704</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39586,10 +38488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:52</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44427.4825462963</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39653,10 +38553,8 @@
           <t>5199037060</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:52</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44427.4825462963</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39732,10 +38630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:48</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44427.4825</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39807,10 +38703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:39</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44427.48239583334</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39882,10 +38776,8 @@
           <t>5199029341</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:31</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44427.48230324074</v>
       </c>
       <c r="I543" t="n">
         <v>24</v>
@@ -39961,10 +38853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:30</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44427.48229166667</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40040,10 +38930,8 @@
           <t>5199035918</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:27</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44427.48225694444</v>
       </c>
       <c r="I545" t="n">
         <v>9</v>
@@ -40115,10 +39003,8 @@
           <t>5199033839</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:25</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44427.4822337963</v>
       </c>
       <c r="I546" t="n">
         <v>5</v>
@@ -40190,10 +39076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:08</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44427.48203703704</v>
       </c>
       <c r="I547" t="n">
         <v>5</v>
@@ -40269,10 +39153,8 @@
           <t>5199024789</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:34:03</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44427.48197916667</v>
       </c>
       <c r="I548" t="n">
         <v>3</v>
@@ -40336,10 +39218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:33:54</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44427.481875</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40415,10 +39295,8 @@
           <t>5199032061</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:33:50</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44427.48182870371</v>
       </c>
       <c r="I550" t="n">
         <v>4</v>
@@ -40486,10 +39364,8 @@
           <t>5199027300</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:33:44</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44427.48175925926</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40565,10 +39441,8 @@
           <t>5199023561</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:33:37</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44427.48167824074</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40628,10 +39502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:33:24</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44427.48152777777</v>
       </c>
       <c r="I553" t="n">
         <v>3</v>
@@ -40699,10 +39571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:33:00</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44427.48125</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40724,11 +39594,7 @@
       </c>
       <c r="M554" t="inlineStr">
         <is>
-          <t>我是兔田大家族的兔田殇，请多多关照
-我是单推peko
-没经历过的事，没玩过的游戏，我不会随意评判
-我只相信自己所见所闻所感
-善意以善意以报</t>
+          <t>我是兔田大家族的兔田殇，请多多关照_x000a_我是单推peko_x000a_没经历过的事，没玩过的游戏，我不会随意评判_x000a_我只相信自己所见所闻所感_x000a_善意以善意以报</t>
         </is>
       </c>
       <c r="N554" t="n">
@@ -40778,10 +39644,8 @@
           <t>5199019003</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:32:50</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44427.48113425926</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40849,10 +39713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:32:38</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44427.48099537037</v>
       </c>
       <c r="I556" t="n">
         <v>968</v>
@@ -40924,10 +39786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:32:35</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44427.48096064815</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -41003,10 +39863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:32:34</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44427.48094907407</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41070,10 +39928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:32:32</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44427.48092592593</v>
       </c>
       <c r="I559" t="n">
         <v>4</v>
@@ -41145,10 +40001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:32:16</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44427.48074074074</v>
       </c>
       <c r="I560" t="n">
         <v>36</v>
@@ -41220,10 +40074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:32:14</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44427.4807175926</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41245,8 +40097,7 @@
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t xml:space="preserve">原神，阴阳师玩家不想参加那些节奏，只想安心玩游戏，希望能和平共处
-</t>
+          <t>原神，阴阳师玩家不想参加那些节奏，只想安心玩游戏，希望能和平共处_x000a_</t>
         </is>
       </c>
       <c r="N561" t="n">
@@ -41296,10 +40147,8 @@
           <t>5199017137</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:32:13</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44427.48070601852</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41367,10 +40216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:32:02</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44427.4805787037</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41434,10 +40281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:45</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44427.48038194444</v>
       </c>
       <c r="I564" t="n">
         <v>542</v>
@@ -41501,10 +40346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:43</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44427.4803587963</v>
       </c>
       <c r="I565" t="n">
         <v>8</v>
@@ -41526,8 +40369,7 @@
       </c>
       <c r="M565" t="inlineStr">
         <is>
-          <t>叫我图图崽就好
-一个抽奖博主 蹭了蛋黄派一波热度</t>
+          <t>叫我图图崽就好_x000a_一个抽奖博主 蹭了蛋黄派一波热度</t>
         </is>
       </c>
       <c r="N565" t="n">
@@ -41573,10 +40415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:34</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44427.48025462963</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41652,10 +40492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:28</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44427.48018518519</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41723,10 +40561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:27</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44427.48017361111</v>
       </c>
       <c r="I568" t="n">
         <v>36</v>
@@ -41790,10 +40626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:26</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44427.48016203703</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41865,10 +40699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:22</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44427.48011574074</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41890,9 +40722,7 @@
       </c>
       <c r="M570" t="inlineStr">
         <is>
-          <t>但是没有关系！(｡･∀･)ﾉﾞヾ(･ω･。)
-PS：米佣兵哦，mvb与mh直接灵活切换（这就要看ch的操作了）。
-：）</t>
+          <t>但是没有关系！(｡･∀･)ﾉﾞヾ(･ω･。)_x000a_PS：米佣兵哦，mvb与mh直接灵活切换（这就要看ch的操作了）。_x000a_：）</t>
         </is>
       </c>
       <c r="N570" t="n">
@@ -41946,10 +40776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:18</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44427.48006944444</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42017,10 +40845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:18</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44427.48006944444</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42092,10 +40918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:14</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44427.48002314815</v>
       </c>
       <c r="I573" t="n">
         <v>3</v>
@@ -42167,10 +40991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:11</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44427.47998842593</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42238,10 +41060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:04</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44427.47990740741</v>
       </c>
       <c r="I575" t="n">
         <v>3</v>
@@ -42313,10 +41133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:04</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44427.47990740741</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42388,10 +41206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:03</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44427.47989583333</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42455,10 +41271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:31:03</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44427.47989583333</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42522,10 +41336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:30:46</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44427.47969907407</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42589,10 +41401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:30:46</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44427.47969907407</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42660,10 +41470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:30:43</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44427.47966435185</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42727,10 +41535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:30:43</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44427.47966435185</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42806,10 +41612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:30:42</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44427.47965277778</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42877,10 +41681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:30:37</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44427.47959490741</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -42948,10 +41750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:30:31</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44427.47952546296</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43019,10 +41819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:30:24</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44427.47944444444</v>
       </c>
       <c r="I586" t="n">
         <v>3</v>
@@ -43044,8 +41842,7 @@
       </c>
       <c r="M586" t="inlineStr">
         <is>
-          <t>欢迎在视频下方留言哦,清洁工兼音游弟弟，符华厨(单推符华！！！)
-QQ3326886847</t>
+          <t>欢迎在视频下方留言哦,清洁工兼音游弟弟，符华厨(单推符华！！！)_x000a_QQ3326886847</t>
         </is>
       </c>
       <c r="N586" t="n">
